--- a/docs/Group Work Diary.xlsx
+++ b/docs/Group Work Diary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuzon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560F88AD-4A94-4B5F-A2EA-283807B4F7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C3F1A0-7246-4EEB-B0A4-79BC9172638C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ItSE Group Work Diary Form</t>
   </si>
@@ -54,13 +54,37 @@
   </si>
   <si>
     <t>Note: List all tasks seperated by commas for each member.</t>
+  </si>
+  <si>
+    <t>Mateusz Kuzon</t>
+  </si>
+  <si>
+    <t>c3076381@student.shu.ac.uk</t>
+  </si>
+  <si>
+    <t>Scott Forster</t>
+  </si>
+  <si>
+    <t>Charlie Molnar</t>
+  </si>
+  <si>
+    <t>Nasir Al-Monsur</t>
+  </si>
+  <si>
+    <t>c3077195@student.shu.ac.uk</t>
+  </si>
+  <si>
+    <t>c3022458@student.shu.ac.uk</t>
+  </si>
+  <si>
+    <t>c3035956@student.shu.ac.uk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +103,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,10 +160,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -142,8 +175,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,12 +514,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="18.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" customWidth="1"/>
     <col min="3" max="3" width="36.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -513,23 +549,39 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -541,6 +593,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{A28441FA-4D61-47AD-8606-0100E29F3107}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{607FA25D-6CA6-4CDA-8769-F825536709F8}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{CEB4A3D8-F512-48D0-8817-C37161A31DAB}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{CCDDE86B-541C-4AAF-8819-2DE5D19977FD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/Group Work Diary.xlsx
+++ b/docs/Group Work Diary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuzon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Inventory-Managment-System\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C3F1A0-7246-4EEB-B0A4-79BC9172638C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA054F3A-44C0-4BC5-B666-EEDF581B7A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group Diary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>ItSE Group Work Diary Form</t>
   </si>
@@ -78,13 +78,121 @@
   </si>
   <si>
     <t>c3035956@student.shu.ac.uk</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Task Id</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Predecessor Task</t>
+  </si>
+  <si>
+    <t>Planned Start Date</t>
+  </si>
+  <si>
+    <t>Planned End Date</t>
+  </si>
+  <si>
+    <t>Actual Sart Date</t>
+  </si>
+  <si>
+    <t>Actual End Date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Pln1</t>
+  </si>
+  <si>
+    <t>define scope</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Pln2</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t>Pln3</t>
+  </si>
+  <si>
+    <t>Pln4</t>
+  </si>
+  <si>
+    <t>ERD</t>
+  </si>
+  <si>
+    <t>WireFrames</t>
+  </si>
+  <si>
+    <t>Pln5</t>
+  </si>
+  <si>
+    <t>User Storeis + Acceptance Test</t>
+  </si>
+  <si>
+    <t>Define Scope</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Imp1</t>
+  </si>
+  <si>
+    <t>Imp2</t>
+  </si>
+  <si>
+    <t>Imp3</t>
+  </si>
+  <si>
+    <t>Imp4</t>
+  </si>
+  <si>
+    <t>Imp5</t>
+  </si>
+  <si>
+    <t>Imp6</t>
+  </si>
+  <si>
+    <t>Construct Database</t>
+  </si>
+  <si>
+    <t>Planning Stage</t>
+  </si>
+  <si>
+    <t>Log In Page - Front End</t>
+  </si>
+  <si>
+    <t>Index Page - unlogged in - Front end</t>
+  </si>
+  <si>
+    <t>Index Page - logged in - Front end</t>
+  </si>
+  <si>
+    <t>Add Stock  - Front end</t>
+  </si>
+  <si>
+    <t>Remove  Stock - Front end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +219,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -172,10 +286,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,33 +626,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" customWidth="1"/>
-    <col min="2" max="2" width="25.453125" customWidth="1"/>
-    <col min="3" max="3" width="36.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="36.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -548,51 +668,268 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="7">
+        <v>45569</v>
+      </c>
+      <c r="F14" s="7">
+        <v>45569</v>
+      </c>
+      <c r="G14" s="7">
+        <v>45569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="7">
+        <v>45572</v>
+      </c>
+      <c r="F15" s="7">
+        <v>45578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="7">
+        <v>45572</v>
+      </c>
+      <c r="F16" s="7">
+        <v>45578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="7">
+        <v>45572</v>
+      </c>
+      <c r="F17" s="7">
+        <v>45578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="7">
+        <v>45572</v>
+      </c>
+      <c r="F18" s="7">
+        <v>45578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{A28441FA-4D61-47AD-8606-0100E29F3107}"/>
     <hyperlink ref="B7" r:id="rId2" xr:uid="{607FA25D-6CA6-4CDA-8769-F825536709F8}"/>

--- a/docs/Group Work Diary.xlsx
+++ b/docs/Group Work Diary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Inventory-Managment-System\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuzon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA054F3A-44C0-4BC5-B666-EEDF581B7A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C26D8D4-EE6D-4CF9-88CF-AF8115039667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group Diary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
   <si>
     <t>ItSE Group Work Diary Form</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Pln5</t>
   </si>
   <si>
-    <t>User Storeis + Acceptance Test</t>
-  </si>
-  <si>
     <t>Define Scope</t>
   </si>
   <si>
@@ -186,6 +183,102 @@
   </si>
   <si>
     <t>Remove  Stock - Front end</t>
+  </si>
+  <si>
+    <t>Imp7</t>
+  </si>
+  <si>
+    <t>Imp8</t>
+  </si>
+  <si>
+    <t>Imp9</t>
+  </si>
+  <si>
+    <t>Imp10</t>
+  </si>
+  <si>
+    <t>Imp11</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>User Stories + Acceptance Test</t>
+  </si>
+  <si>
+    <t>Main Page (Display all Stock) - Front End</t>
+  </si>
+  <si>
+    <t>Inspect Stock Page - Front End</t>
+  </si>
+  <si>
+    <t>Filter Stock System - Back end</t>
+  </si>
+  <si>
+    <t>Search Stock - Back End</t>
+  </si>
+  <si>
+    <t>Imp12</t>
+  </si>
+  <si>
+    <t>Imp13</t>
+  </si>
+  <si>
+    <t>Imp14</t>
+  </si>
+  <si>
+    <t>Imp15</t>
+  </si>
+  <si>
+    <t>Imp16</t>
+  </si>
+  <si>
+    <t>Imp17</t>
+  </si>
+  <si>
+    <t>Imp18</t>
+  </si>
+  <si>
+    <t>Index Page - unlogged in - Back end</t>
+  </si>
+  <si>
+    <t>Index Page - logged in - Back end</t>
+  </si>
+  <si>
+    <t>Add Stock  - Back end</t>
+  </si>
+  <si>
+    <t>Remove  Stock - Back end</t>
+  </si>
+  <si>
+    <t>Main Page (Display all Stock) - Back End</t>
+  </si>
+  <si>
+    <t>Inspect Stock Page - Back End</t>
+  </si>
+  <si>
+    <t>Category Page - Front End</t>
+  </si>
+  <si>
+    <t>Category Page - Back End</t>
+  </si>
+  <si>
+    <t>Imp19</t>
+  </si>
+  <si>
+    <t>Log In Page</t>
+  </si>
+  <si>
+    <t>Main Page (Display All Stock)</t>
+  </si>
+  <si>
+    <t>Log In Page - Back End</t>
+  </si>
+  <si>
+    <t>Add Stock Front End</t>
+  </si>
+  <si>
+    <t>Main Page (Display All Stock) - Back End</t>
   </si>
 </sst>
 </file>
@@ -287,10 +380,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -626,38 +719,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="36.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -668,7 +761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -677,7 +770,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -686,7 +779,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -695,7 +788,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -704,12 +797,12 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -738,7 +831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -751,17 +844,23 @@
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>45569</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>45569</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>45569</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H14" s="6">
+        <v>45573</v>
+      </c>
+      <c r="I14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -772,16 +871,16 @@
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="7">
+        <v>34</v>
+      </c>
+      <c r="E15" s="6">
         <v>45572</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>45578</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -792,16 +891,16 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="7">
+        <v>34</v>
+      </c>
+      <c r="E16" s="6">
         <v>45572</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>45578</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -812,16 +911,16 @@
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="7">
+        <v>34</v>
+      </c>
+      <c r="E17" s="6">
         <v>45572</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>45578</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -829,100 +928,396 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
         <v>34</v>
       </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>45572</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>45578</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="6">
+        <v>45573</v>
+      </c>
+      <c r="F19" s="6">
+        <v>45578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
         <v>43</v>
       </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="E20" s="6">
+        <v>45579</v>
+      </c>
+      <c r="F20" s="6">
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="6">
+        <v>45579</v>
+      </c>
+      <c r="F21" s="6">
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>46</v>
       </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="6">
+        <v>45579</v>
+      </c>
+      <c r="F22" s="6">
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>47</v>
       </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="6">
+        <v>45579</v>
+      </c>
+      <c r="F23" s="6">
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>48</v>
       </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="6">
+        <v>45579</v>
+      </c>
+      <c r="F24" s="6">
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="D24" t="s">
-        <v>44</v>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="6">
+        <v>45579</v>
+      </c>
+      <c r="F25" s="6">
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="6">
+        <v>45579</v>
+      </c>
+      <c r="F26" s="6">
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="6">
+        <v>45593</v>
+      </c>
+      <c r="F27" s="6">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="6">
+        <v>45593</v>
+      </c>
+      <c r="F28" s="6">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="6">
+        <v>45593</v>
+      </c>
+      <c r="F29" s="6">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="6">
+        <v>45593</v>
+      </c>
+      <c r="F30" s="6">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="6">
+        <v>45593</v>
+      </c>
+      <c r="F31" s="6">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="6">
+        <v>45593</v>
+      </c>
+      <c r="F32" s="6">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="6">
+        <v>45593</v>
+      </c>
+      <c r="F33" s="6">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="6">
+        <v>45593</v>
+      </c>
+      <c r="F34" s="6">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="6">
+        <v>45593</v>
+      </c>
+      <c r="F35" s="6">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="6">
+        <v>45579</v>
+      </c>
+      <c r="F36" s="6">
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="6">
+        <v>45593</v>
+      </c>
+      <c r="F37" s="6">
+        <v>45627</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Group Work Diary.xlsx
+++ b/docs/Group Work Diary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuzon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C26D8D4-EE6D-4CF9-88CF-AF8115039667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39014523-F4AD-4A04-918A-64CB2D336D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group Diary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="84">
   <si>
     <t>ItSE Group Work Diary Form</t>
   </si>
@@ -170,21 +170,6 @@
     <t>Planning Stage</t>
   </si>
   <si>
-    <t>Log In Page - Front End</t>
-  </si>
-  <si>
-    <t>Index Page - unlogged in - Front end</t>
-  </si>
-  <si>
-    <t>Index Page - logged in - Front end</t>
-  </si>
-  <si>
-    <t>Add Stock  - Front end</t>
-  </si>
-  <si>
-    <t>Remove  Stock - Front end</t>
-  </si>
-  <si>
     <t>Imp7</t>
   </si>
   <si>
@@ -197,88 +182,112 @@
     <t>Imp10</t>
   </si>
   <si>
-    <t>Imp11</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
-    <t>User Stories + Acceptance Test</t>
-  </si>
-  <si>
-    <t>Main Page (Display all Stock) - Front End</t>
-  </si>
-  <si>
-    <t>Inspect Stock Page - Front End</t>
-  </si>
-  <si>
-    <t>Filter Stock System - Back end</t>
-  </si>
-  <si>
-    <t>Search Stock - Back End</t>
-  </si>
-  <si>
-    <t>Imp12</t>
-  </si>
-  <si>
-    <t>Imp13</t>
-  </si>
-  <si>
-    <t>Imp14</t>
-  </si>
-  <si>
-    <t>Imp15</t>
-  </si>
-  <si>
-    <t>Imp16</t>
-  </si>
-  <si>
-    <t>Imp17</t>
-  </si>
-  <si>
-    <t>Imp18</t>
-  </si>
-  <si>
-    <t>Index Page - unlogged in - Back end</t>
-  </si>
-  <si>
-    <t>Index Page - logged in - Back end</t>
-  </si>
-  <si>
-    <t>Add Stock  - Back end</t>
-  </si>
-  <si>
-    <t>Remove  Stock - Back end</t>
-  </si>
-  <si>
-    <t>Main Page (Display all Stock) - Back End</t>
-  </si>
-  <si>
-    <t>Inspect Stock Page - Back End</t>
-  </si>
-  <si>
-    <t>Category Page - Front End</t>
-  </si>
-  <si>
-    <t>Category Page - Back End</t>
-  </si>
-  <si>
-    <t>Imp19</t>
-  </si>
-  <si>
     <t>Log In Page</t>
   </si>
   <si>
-    <t>Main Page (Display All Stock)</t>
-  </si>
-  <si>
-    <t>Log In Page - Back End</t>
-  </si>
-  <si>
-    <t>Add Stock Front End</t>
-  </si>
-  <si>
-    <t>Main Page (Display All Stock) - Back End</t>
+    <t>Pln6</t>
+  </si>
+  <si>
+    <t>Personas</t>
+  </si>
+  <si>
+    <t>Class Diagram</t>
+  </si>
+  <si>
+    <t>C4 Diagram</t>
+  </si>
+  <si>
+    <t>Pln7</t>
+  </si>
+  <si>
+    <t>Pln8</t>
+  </si>
+  <si>
+    <t>Pln9</t>
+  </si>
+  <si>
+    <t>Pln10</t>
+  </si>
+  <si>
+    <t>Pln11</t>
+  </si>
+  <si>
+    <t>Group Work Diary</t>
+  </si>
+  <si>
+    <t>View All Stock</t>
+  </si>
+  <si>
+    <t>Manage Stock Popup</t>
+  </si>
+  <si>
+    <t>View Cart</t>
+  </si>
+  <si>
+    <t>Checkout Cart - Generate invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Cart </t>
+  </si>
+  <si>
+    <t>Search/Filter Stock</t>
+  </si>
+  <si>
+    <t>Administrator View/Manage Employees</t>
+  </si>
+  <si>
+    <t>Administrator Generate Report</t>
+  </si>
+  <si>
+    <t>View All Stock - Administrator Only</t>
+  </si>
+  <si>
+    <t>Tst1</t>
+  </si>
+  <si>
+    <t>Tst2</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Login </t>
+  </si>
+  <si>
+    <t>Test Stock</t>
+  </si>
+  <si>
+    <t>Test Cart</t>
+  </si>
+  <si>
+    <t>Test Administrator</t>
+  </si>
+  <si>
+    <t>Tst3</t>
+  </si>
+  <si>
+    <t>Tst4</t>
+  </si>
+  <si>
+    <t>Pln1,Pln3, Pln6,Pln7,Pln11,Imp8,Imp9,Imp10,Tst4</t>
+  </si>
+  <si>
+    <t>Pln1,Pln4,Pln7,Imp1,tst1</t>
+  </si>
+  <si>
+    <t>Pln1, Pln2,Pln7,Pln8,Pln9,imp2,imp3,imp4,tst2</t>
+  </si>
+  <si>
+    <t>Pln1,Pln5,Pln7,Pln10,imp5,imp6,imp7,tst3</t>
+  </si>
+  <si>
+    <t>Sequence Diagram</t>
+  </si>
+  <si>
+    <t>User Stories</t>
   </si>
 </sst>
 </file>
@@ -719,38 +728,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="3" max="3" width="41.453125" customWidth="1"/>
+    <col min="4" max="4" width="36.453125" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -761,48 +770,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -831,7 +848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -857,10 +874,10 @@
         <v>45573</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -879,8 +896,17 @@
       <c r="F15" s="6">
         <v>45578</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="6">
+        <v>45572</v>
+      </c>
+      <c r="H15" s="6">
+        <v>45578</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -899,8 +925,17 @@
       <c r="F16" s="6">
         <v>45578</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="6">
+        <v>45572</v>
+      </c>
+      <c r="H16" s="6">
+        <v>45578</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -919,8 +954,17 @@
       <c r="F17" s="6">
         <v>45578</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="6">
+        <v>45572</v>
+      </c>
+      <c r="H17" s="6">
+        <v>45578</v>
+      </c>
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -928,7 +972,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
         <v>34</v>
@@ -939,13 +983,22 @@
       <c r="F18" s="6">
         <v>45578</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="6">
+        <v>45572</v>
+      </c>
+      <c r="H18" s="6">
+        <v>45578</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
@@ -959,365 +1012,481 @@
       <c r="F19" s="6">
         <v>45578</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="6">
+        <v>45573</v>
+      </c>
+      <c r="H19" s="6">
+        <v>45578</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E20" s="6">
-        <v>45579</v>
+        <v>45586</v>
       </c>
       <c r="F20" s="6">
         <v>45592</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="6">
+        <v>45586</v>
+      </c>
+      <c r="H20" s="6">
+        <v>45592</v>
+      </c>
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E21" s="6">
-        <v>45579</v>
+        <v>45586</v>
       </c>
       <c r="F21" s="6">
         <v>45592</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="6">
+        <v>45586</v>
+      </c>
+      <c r="H21" s="6">
+        <v>45592</v>
+      </c>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E22" s="6">
-        <v>45579</v>
+        <v>45586</v>
       </c>
       <c r="F22" s="6">
         <v>45592</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="6">
+        <v>45586</v>
+      </c>
+      <c r="H22" s="6">
+        <v>45592</v>
+      </c>
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="E23" s="6">
-        <v>45579</v>
+        <v>45586</v>
       </c>
       <c r="F23" s="6">
         <v>45592</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="6">
+        <v>45586</v>
+      </c>
+      <c r="H23" s="6">
+        <v>45592</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="6">
+        <v>45569</v>
+      </c>
+      <c r="F24" s="6">
+        <v>45569</v>
+      </c>
+      <c r="G24" s="6">
+        <v>45569</v>
+      </c>
+      <c r="H24" s="6">
+        <v>45569</v>
+      </c>
+      <c r="I24" t="s">
         <v>48</v>
       </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="6">
-        <v>45579</v>
-      </c>
-      <c r="F24" s="6">
-        <v>45592</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
         <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
       </c>
       <c r="D25" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="6">
-        <v>45579</v>
+        <v>45593</v>
       </c>
       <c r="F25" s="6">
-        <v>45592</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45609</v>
+      </c>
+      <c r="G25" s="6">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="E26" s="6">
-        <v>45579</v>
+        <v>45593</v>
       </c>
       <c r="F26" s="6">
-        <v>45592</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45609</v>
+      </c>
+      <c r="G26" s="6">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E27" s="6">
         <v>45593</v>
       </c>
       <c r="F27" s="6">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45609</v>
+      </c>
+      <c r="G27" s="6">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E28" s="6">
         <v>45593</v>
       </c>
       <c r="F28" s="6">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45609</v>
+      </c>
+      <c r="G28" s="6">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E29" s="6">
         <v>45593</v>
       </c>
       <c r="F29" s="6">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45609</v>
+      </c>
+      <c r="G29" s="6">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E30" s="6">
         <v>45593</v>
       </c>
       <c r="F30" s="6">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45609</v>
+      </c>
+      <c r="G30" s="6">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E31" s="6">
         <v>45593</v>
       </c>
       <c r="F31" s="6">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45609</v>
+      </c>
+      <c r="G31" s="6">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E32" s="6">
         <v>45593</v>
       </c>
       <c r="F32" s="6">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45609</v>
+      </c>
+      <c r="G32" s="6">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E33" s="6">
         <v>45593</v>
       </c>
       <c r="F33" s="6">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45609</v>
+      </c>
+      <c r="G33" s="6">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="6">
+        <v>45593</v>
+      </c>
+      <c r="F34" s="6">
+        <v>45609</v>
+      </c>
+      <c r="G34" s="6">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>71</v>
       </c>
-      <c r="D34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="6">
-        <v>45593</v>
-      </c>
-      <c r="F34" s="6">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E35" s="6">
-        <v>45593</v>
+        <v>45609</v>
       </c>
       <c r="F35" s="6">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45613</v>
+      </c>
+      <c r="G35" s="6">
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
         <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E36" s="6">
-        <v>45579</v>
+        <v>45609</v>
       </c>
       <c r="F36" s="6">
-        <v>45592</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45613</v>
+      </c>
+      <c r="G36" s="6">
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
         <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E37" s="6">
-        <v>45593</v>
+        <v>45609</v>
       </c>
       <c r="F37" s="6">
-        <v>45627</v>
+        <v>45613</v>
+      </c>
+      <c r="G37" s="6">
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="6">
+        <v>45609</v>
+      </c>
+      <c r="F38" s="6">
+        <v>45613</v>
+      </c>
+      <c r="G38" s="6">
+        <v>45609</v>
       </c>
     </row>
   </sheetData>
